--- a/Procedure_tests/fiche_de_tests.xlsx
+++ b/Procedure_tests/fiche_de_tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Simplon\4-desktop_app\ressource_client_git\Procedure_tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB0E927D-FE6E-4479-A184-3E3403912FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147622D1-BB81-4040-95A4-DD00F976F8A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,15 +26,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="43">
-  <si>
-    <t>Attendue</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="45">
   <si>
     <t>Actions</t>
-  </si>
-  <si>
-    <t>Résultat</t>
   </si>
   <si>
     <t>N°</t>
@@ -156,6 +150,18 @@
   <si>
     <t>Vous pouvez voir que les changements ne sont envoyés sur le serveur parce que vous n'avez pas commit.</t>
   </si>
+  <si>
+    <t>Déclencher un problème de merge</t>
+  </si>
+  <si>
+    <t>l'application ne gère pas le merge, vous devez donc résoudre le problème manuellement avant de pouvoir pull.</t>
+  </si>
+  <si>
+    <t>Attendus</t>
+  </si>
+  <si>
+    <t>Résultats</t>
+  </si>
 </sst>
 </file>
 
@@ -275,95 +281,11 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp100.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp101.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp102.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp103.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp104.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp105.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp106.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp107.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp108.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp109.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
 <file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp110.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp111.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp112.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp113.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp114.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp115.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp116.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp117.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp118.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp119.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
 <file path=xl/ctrlProps/ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp120.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
@@ -675,75 +597,7 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp83.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp84.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp85.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp86.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp87.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp88.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp89.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
 <file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp90.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp91.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp92.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp93.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp94.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp95.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp96.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp97.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp98.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp99.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
@@ -4471,1382 +4325,6 @@
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>NOK</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>419100</xdr:colOff>
-          <xdr:row>24</xdr:row>
-          <xdr:rowOff>171450</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>857250</xdr:colOff>
-          <xdr:row>24</xdr:row>
-          <xdr:rowOff>514350</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1083" name="Check Box 59" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1083"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>OK</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>1228725</xdr:colOff>
-          <xdr:row>24</xdr:row>
-          <xdr:rowOff>171450</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>1666875</xdr:colOff>
-          <xdr:row>24</xdr:row>
-          <xdr:rowOff>514350</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1084" name="Check Box 60" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1084"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>NOK</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>419100</xdr:colOff>
-          <xdr:row>25</xdr:row>
-          <xdr:rowOff>171450</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>857250</xdr:colOff>
-          <xdr:row>25</xdr:row>
-          <xdr:rowOff>514350</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1085" name="Check Box 61" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1085"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>OK</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>1228725</xdr:colOff>
-          <xdr:row>25</xdr:row>
-          <xdr:rowOff>171450</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>1666875</xdr:colOff>
-          <xdr:row>25</xdr:row>
-          <xdr:rowOff>514350</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1086" name="Check Box 62" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1086"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003E040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>NOK</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>419100</xdr:colOff>
-          <xdr:row>26</xdr:row>
-          <xdr:rowOff>171450</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>857250</xdr:colOff>
-          <xdr:row>26</xdr:row>
-          <xdr:rowOff>514350</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1087" name="Check Box 63" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1087"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>OK</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>1228725</xdr:colOff>
-          <xdr:row>26</xdr:row>
-          <xdr:rowOff>171450</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>1666875</xdr:colOff>
-          <xdr:row>26</xdr:row>
-          <xdr:rowOff>514350</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1088" name="Check Box 64" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1088"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000040040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>NOK</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>419100</xdr:colOff>
-          <xdr:row>27</xdr:row>
-          <xdr:rowOff>171450</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>857250</xdr:colOff>
-          <xdr:row>27</xdr:row>
-          <xdr:rowOff>514350</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1089" name="Check Box 65" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1089"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000041040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>OK</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>1228725</xdr:colOff>
-          <xdr:row>27</xdr:row>
-          <xdr:rowOff>171450</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>1666875</xdr:colOff>
-          <xdr:row>27</xdr:row>
-          <xdr:rowOff>514350</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1090" name="Check Box 66" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1090"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>NOK</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>419100</xdr:colOff>
-          <xdr:row>28</xdr:row>
-          <xdr:rowOff>171450</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>857250</xdr:colOff>
-          <xdr:row>28</xdr:row>
-          <xdr:rowOff>514350</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1091" name="Check Box 67" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1091"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000043040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>OK</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>1228725</xdr:colOff>
-          <xdr:row>28</xdr:row>
-          <xdr:rowOff>171450</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>1666875</xdr:colOff>
-          <xdr:row>28</xdr:row>
-          <xdr:rowOff>514350</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1092" name="Check Box 68" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1092"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000044040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>NOK</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>419100</xdr:colOff>
-          <xdr:row>29</xdr:row>
-          <xdr:rowOff>171450</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>857250</xdr:colOff>
-          <xdr:row>29</xdr:row>
-          <xdr:rowOff>514350</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1093" name="Check Box 69" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1093"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000045040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>OK</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>1228725</xdr:colOff>
-          <xdr:row>29</xdr:row>
-          <xdr:rowOff>171450</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>1666875</xdr:colOff>
-          <xdr:row>29</xdr:row>
-          <xdr:rowOff>514350</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1094" name="Check Box 70" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1094"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000046040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>NOK</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>419100</xdr:colOff>
-          <xdr:row>30</xdr:row>
-          <xdr:rowOff>171450</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>857250</xdr:colOff>
-          <xdr:row>30</xdr:row>
-          <xdr:rowOff>514350</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1095" name="Check Box 71" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1095"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000047040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>OK</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>1228725</xdr:colOff>
-          <xdr:row>30</xdr:row>
-          <xdr:rowOff>171450</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>1666875</xdr:colOff>
-          <xdr:row>30</xdr:row>
-          <xdr:rowOff>514350</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1096" name="Check Box 72" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1096"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000048040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>NOK</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>419100</xdr:colOff>
-          <xdr:row>31</xdr:row>
-          <xdr:rowOff>171450</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>857250</xdr:colOff>
-          <xdr:row>31</xdr:row>
-          <xdr:rowOff>514350</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1097" name="Check Box 73" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1097"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000049040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>OK</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>1228725</xdr:colOff>
-          <xdr:row>31</xdr:row>
-          <xdr:rowOff>171450</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>1666875</xdr:colOff>
-          <xdr:row>31</xdr:row>
-          <xdr:rowOff>514350</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1098" name="Check Box 74" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1098"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9120,1898 +7598,6 @@
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000750C0000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>NOK</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>400050</xdr:colOff>
-          <xdr:row>21</xdr:row>
-          <xdr:rowOff>171450</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>685800</xdr:colOff>
-          <xdr:row>21</xdr:row>
-          <xdr:rowOff>523875</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3190" name="Check Box 118" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3190"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000760C0000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>OK</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>1209675</xdr:colOff>
-          <xdr:row>21</xdr:row>
-          <xdr:rowOff>171450</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>1647825</xdr:colOff>
-          <xdr:row>21</xdr:row>
-          <xdr:rowOff>523875</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3191" name="Check Box 119" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3191"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000770C0000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>NOK</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>400050</xdr:colOff>
-          <xdr:row>22</xdr:row>
-          <xdr:rowOff>171450</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>685800</xdr:colOff>
-          <xdr:row>22</xdr:row>
-          <xdr:rowOff>523875</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3192" name="Check Box 120" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3192"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000780C0000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>OK</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>1209675</xdr:colOff>
-          <xdr:row>22</xdr:row>
-          <xdr:rowOff>171450</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>1647825</xdr:colOff>
-          <xdr:row>22</xdr:row>
-          <xdr:rowOff>523875</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3193" name="Check Box 121" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3193"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000790C0000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>NOK</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>400050</xdr:colOff>
-          <xdr:row>24</xdr:row>
-          <xdr:rowOff>171450</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>685800</xdr:colOff>
-          <xdr:row>24</xdr:row>
-          <xdr:rowOff>523875</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3194" name="Check Box 122" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3194"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00007A0C0000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>OK</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>1209675</xdr:colOff>
-          <xdr:row>24</xdr:row>
-          <xdr:rowOff>171450</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>1647825</xdr:colOff>
-          <xdr:row>24</xdr:row>
-          <xdr:rowOff>523875</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3195" name="Check Box 123" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3195"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00007B0C0000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>NOK</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>400050</xdr:colOff>
-          <xdr:row>23</xdr:row>
-          <xdr:rowOff>171450</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>685800</xdr:colOff>
-          <xdr:row>23</xdr:row>
-          <xdr:rowOff>523875</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3196" name="Check Box 124" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3196"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00007C0C0000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>OK</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>1209675</xdr:colOff>
-          <xdr:row>23</xdr:row>
-          <xdr:rowOff>171450</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>1647825</xdr:colOff>
-          <xdr:row>23</xdr:row>
-          <xdr:rowOff>523875</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3197" name="Check Box 125" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3197"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00007D0C0000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>NOK</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>400050</xdr:colOff>
-          <xdr:row>25</xdr:row>
-          <xdr:rowOff>171450</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>685800</xdr:colOff>
-          <xdr:row>25</xdr:row>
-          <xdr:rowOff>523875</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3198" name="Check Box 126" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3198"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00007E0C0000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>OK</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>1209675</xdr:colOff>
-          <xdr:row>25</xdr:row>
-          <xdr:rowOff>171450</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>1647825</xdr:colOff>
-          <xdr:row>25</xdr:row>
-          <xdr:rowOff>523875</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3199" name="Check Box 127" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3199"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00007F0C0000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>NOK</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>400050</xdr:colOff>
-          <xdr:row>26</xdr:row>
-          <xdr:rowOff>171450</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>685800</xdr:colOff>
-          <xdr:row>26</xdr:row>
-          <xdr:rowOff>523875</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3200" name="Check Box 128" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3200"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000800C0000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>OK</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>1209675</xdr:colOff>
-          <xdr:row>26</xdr:row>
-          <xdr:rowOff>171450</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>1647825</xdr:colOff>
-          <xdr:row>26</xdr:row>
-          <xdr:rowOff>523875</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3201" name="Check Box 129" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3201"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000810C0000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>NOK</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>400050</xdr:colOff>
-          <xdr:row>27</xdr:row>
-          <xdr:rowOff>171450</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>685800</xdr:colOff>
-          <xdr:row>27</xdr:row>
-          <xdr:rowOff>523875</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3202" name="Check Box 130" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3202"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000820C0000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>OK</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>1209675</xdr:colOff>
-          <xdr:row>27</xdr:row>
-          <xdr:rowOff>171450</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>1647825</xdr:colOff>
-          <xdr:row>27</xdr:row>
-          <xdr:rowOff>523875</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3203" name="Check Box 131" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3203"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000830C0000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>NOK</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>400050</xdr:colOff>
-          <xdr:row>28</xdr:row>
-          <xdr:rowOff>171450</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>685800</xdr:colOff>
-          <xdr:row>28</xdr:row>
-          <xdr:rowOff>523875</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3204" name="Check Box 132" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3204"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000840C0000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>OK</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>1209675</xdr:colOff>
-          <xdr:row>28</xdr:row>
-          <xdr:rowOff>171450</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>1647825</xdr:colOff>
-          <xdr:row>28</xdr:row>
-          <xdr:rowOff>523875</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3205" name="Check Box 133" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3205"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000850C0000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>NOK</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>400050</xdr:colOff>
-          <xdr:row>29</xdr:row>
-          <xdr:rowOff>171450</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>685800</xdr:colOff>
-          <xdr:row>29</xdr:row>
-          <xdr:rowOff>523875</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3206" name="Check Box 134" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3206"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000860C0000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>OK</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>1209675</xdr:colOff>
-          <xdr:row>29</xdr:row>
-          <xdr:rowOff>171450</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>1647825</xdr:colOff>
-          <xdr:row>29</xdr:row>
-          <xdr:rowOff>523875</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3207" name="Check Box 135" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3207"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000870C0000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>NOK</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>400050</xdr:colOff>
-          <xdr:row>30</xdr:row>
-          <xdr:rowOff>171450</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>685800</xdr:colOff>
-          <xdr:row>30</xdr:row>
-          <xdr:rowOff>523875</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3208" name="Check Box 136" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3208"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000880C0000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>OK</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>1209675</xdr:colOff>
-          <xdr:row>30</xdr:row>
-          <xdr:rowOff>171450</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>1647825</xdr:colOff>
-          <xdr:row>30</xdr:row>
-          <xdr:rowOff>523875</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3209" name="Check Box 137" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3209"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000890C0000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>NOK</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>400050</xdr:colOff>
-          <xdr:row>31</xdr:row>
-          <xdr:rowOff>171450</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>685800</xdr:colOff>
-          <xdr:row>31</xdr:row>
-          <xdr:rowOff>523875</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3210" name="Check Box 138" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3210"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00008A0C0000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="fr-FR" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>OK</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>1209675</xdr:colOff>
-          <xdr:row>31</xdr:row>
-          <xdr:rowOff>171450</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>1647825</xdr:colOff>
-          <xdr:row>31</xdr:row>
-          <xdr:rowOff>523875</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3211" name="Check Box 139" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3211"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00008B0C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11340,10 +7926,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:D19"/>
+    <sheetView showGridLines="0" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11370,16 +7956,16 @@
     <row r="2" spans="1:11" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="7"/>
@@ -11392,10 +7978,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E3" s="6"/>
       <c r="G3" s="5"/>
@@ -11409,10 +7995,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E4" s="6"/>
       <c r="G4" s="5"/>
@@ -11426,10 +8012,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E5" s="6"/>
     </row>
@@ -11438,10 +8024,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E6" s="6"/>
     </row>
@@ -11450,10 +8036,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>28</v>
       </c>
       <c r="E7" s="6"/>
     </row>
@@ -11462,10 +8048,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E8" s="6"/>
     </row>
@@ -11474,10 +8060,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E9" s="6"/>
     </row>
@@ -11486,10 +8072,10 @@
         <v>8</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E10" s="6"/>
     </row>
@@ -11498,10 +8084,10 @@
         <v>9</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E11" s="6"/>
     </row>
@@ -11510,10 +8096,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E12" s="6"/>
     </row>
@@ -11522,10 +8108,10 @@
         <v>11</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E13" s="6"/>
     </row>
@@ -11534,10 +8120,10 @@
         <v>12</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E14" s="6"/>
     </row>
@@ -11546,10 +8132,10 @@
         <v>13</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E15" s="6"/>
     </row>
@@ -11558,10 +8144,10 @@
         <v>14</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E16" s="6"/>
     </row>
@@ -11570,10 +8156,10 @@
         <v>15</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E17" s="6"/>
     </row>
@@ -11582,10 +8168,10 @@
         <v>16</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E18" s="6"/>
     </row>
@@ -11594,10 +8180,10 @@
         <v>17</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E19" s="6"/>
     </row>
@@ -11605,105 +8191,61 @@
       <c r="B20" s="3">
         <v>18</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
+      <c r="C20" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="E20" s="6"/>
     </row>
     <row r="21" spans="2:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
         <v>19</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
+      <c r="C21" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="E21" s="6"/>
     </row>
     <row r="22" spans="2:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <v>20</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
+      <c r="C22" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="E22" s="6"/>
     </row>
     <row r="23" spans="2:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <v>21</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
+      <c r="C23" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="E23" s="6"/>
     </row>
     <row r="24" spans="2:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <v>22</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
+      <c r="C24" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="E24" s="6"/>
-    </row>
-    <row r="25" spans="2:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="3">
-        <v>23</v>
-      </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-    </row>
-    <row r="26" spans="2:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="3">
-        <v>24</v>
-      </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-    </row>
-    <row r="27" spans="2:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="3">
-        <v>25</v>
-      </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-    </row>
-    <row r="28" spans="2:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="3">
-        <v>26</v>
-      </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-    </row>
-    <row r="29" spans="2:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="3">
-        <v>27</v>
-      </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-    </row>
-    <row r="30" spans="2:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="3">
-        <v>28</v>
-      </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-    </row>
-    <row r="31" spans="2:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="3">
-        <v>29</v>
-      </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-    </row>
-    <row r="32" spans="2:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="3">
-        <v>30</v>
-      </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12681,358 +9223,6 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1083" r:id="rId48" name="Check Box 59">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>419100</xdr:colOff>
-                    <xdr:row>24</xdr:row>
-                    <xdr:rowOff>171450</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>857250</xdr:colOff>
-                    <xdr:row>24</xdr:row>
-                    <xdr:rowOff>514350</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1084" r:id="rId49" name="Check Box 60">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>1228725</xdr:colOff>
-                    <xdr:row>24</xdr:row>
-                    <xdr:rowOff>171450</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>1666875</xdr:colOff>
-                    <xdr:row>24</xdr:row>
-                    <xdr:rowOff>514350</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1085" r:id="rId50" name="Check Box 61">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>419100</xdr:colOff>
-                    <xdr:row>25</xdr:row>
-                    <xdr:rowOff>171450</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>857250</xdr:colOff>
-                    <xdr:row>25</xdr:row>
-                    <xdr:rowOff>514350</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1086" r:id="rId51" name="Check Box 62">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>1228725</xdr:colOff>
-                    <xdr:row>25</xdr:row>
-                    <xdr:rowOff>171450</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>1666875</xdr:colOff>
-                    <xdr:row>25</xdr:row>
-                    <xdr:rowOff>514350</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1087" r:id="rId52" name="Check Box 63">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>419100</xdr:colOff>
-                    <xdr:row>26</xdr:row>
-                    <xdr:rowOff>171450</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>857250</xdr:colOff>
-                    <xdr:row>26</xdr:row>
-                    <xdr:rowOff>514350</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1088" r:id="rId53" name="Check Box 64">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>1228725</xdr:colOff>
-                    <xdr:row>26</xdr:row>
-                    <xdr:rowOff>171450</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>1666875</xdr:colOff>
-                    <xdr:row>26</xdr:row>
-                    <xdr:rowOff>514350</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1089" r:id="rId54" name="Check Box 65">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>419100</xdr:colOff>
-                    <xdr:row>27</xdr:row>
-                    <xdr:rowOff>171450</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>857250</xdr:colOff>
-                    <xdr:row>27</xdr:row>
-                    <xdr:rowOff>514350</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1090" r:id="rId55" name="Check Box 66">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>1228725</xdr:colOff>
-                    <xdr:row>27</xdr:row>
-                    <xdr:rowOff>171450</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>1666875</xdr:colOff>
-                    <xdr:row>27</xdr:row>
-                    <xdr:rowOff>514350</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1091" r:id="rId56" name="Check Box 67">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>419100</xdr:colOff>
-                    <xdr:row>28</xdr:row>
-                    <xdr:rowOff>171450</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>857250</xdr:colOff>
-                    <xdr:row>28</xdr:row>
-                    <xdr:rowOff>514350</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1092" r:id="rId57" name="Check Box 68">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>1228725</xdr:colOff>
-                    <xdr:row>28</xdr:row>
-                    <xdr:rowOff>171450</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>1666875</xdr:colOff>
-                    <xdr:row>28</xdr:row>
-                    <xdr:rowOff>514350</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1093" r:id="rId58" name="Check Box 69">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>419100</xdr:colOff>
-                    <xdr:row>29</xdr:row>
-                    <xdr:rowOff>171450</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>857250</xdr:colOff>
-                    <xdr:row>29</xdr:row>
-                    <xdr:rowOff>514350</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1094" r:id="rId59" name="Check Box 70">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>1228725</xdr:colOff>
-                    <xdr:row>29</xdr:row>
-                    <xdr:rowOff>171450</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>1666875</xdr:colOff>
-                    <xdr:row>29</xdr:row>
-                    <xdr:rowOff>514350</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1095" r:id="rId60" name="Check Box 71">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>419100</xdr:colOff>
-                    <xdr:row>30</xdr:row>
-                    <xdr:rowOff>171450</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>857250</xdr:colOff>
-                    <xdr:row>30</xdr:row>
-                    <xdr:rowOff>514350</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1096" r:id="rId61" name="Check Box 72">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>1228725</xdr:colOff>
-                    <xdr:row>30</xdr:row>
-                    <xdr:rowOff>171450</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>1666875</xdr:colOff>
-                    <xdr:row>30</xdr:row>
-                    <xdr:rowOff>514350</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1097" r:id="rId62" name="Check Box 73">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>419100</xdr:colOff>
-                    <xdr:row>31</xdr:row>
-                    <xdr:rowOff>171450</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>857250</xdr:colOff>
-                    <xdr:row>31</xdr:row>
-                    <xdr:rowOff>514350</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1098" r:id="rId63" name="Check Box 74">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>1228725</xdr:colOff>
-                    <xdr:row>31</xdr:row>
-                    <xdr:rowOff>171450</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>1666875</xdr:colOff>
-                    <xdr:row>31</xdr:row>
-                    <xdr:rowOff>514350</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
       </controls>
     </mc:Choice>
   </mc:AlternateContent>
@@ -13041,10 +9231,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3832456F-7DA7-49EA-A17A-AC934DE7E615}">
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13071,16 +9261,16 @@
     <row r="2" spans="1:11" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="7"/>
@@ -13093,10 +9283,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E3" s="6"/>
       <c r="G3" s="5"/>
@@ -13110,10 +9300,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E4" s="6"/>
       <c r="G4" s="5"/>
@@ -13127,10 +9317,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>14</v>
       </c>
       <c r="E5" s="6"/>
     </row>
@@ -13139,10 +9329,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>15</v>
       </c>
       <c r="E6" s="6"/>
     </row>
@@ -13151,10 +9341,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E7" s="6"/>
     </row>
@@ -13163,10 +9353,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8" s="6"/>
     </row>
@@ -13175,10 +9365,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E9" s="6"/>
     </row>
@@ -13187,10 +9377,10 @@
         <v>8</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E10" s="6"/>
     </row>
@@ -13199,10 +9389,10 @@
         <v>9</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E11" s="6"/>
     </row>
@@ -13211,10 +9401,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E12" s="6"/>
     </row>
@@ -13223,10 +9413,10 @@
         <v>11</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13" s="6"/>
     </row>
@@ -13235,10 +9425,10 @@
         <v>12</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E14" s="6"/>
     </row>
@@ -13247,10 +9437,10 @@
         <v>13</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E15" s="6"/>
     </row>
@@ -13259,10 +9449,10 @@
         <v>14</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E16" s="6"/>
     </row>
@@ -13271,10 +9461,10 @@
         <v>15</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E17" s="6"/>
     </row>
@@ -13283,10 +9473,10 @@
         <v>16</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E18" s="6"/>
     </row>
@@ -13295,10 +9485,10 @@
         <v>17</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E19" s="6"/>
     </row>
@@ -13307,10 +9497,10 @@
         <v>18</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E20" s="6"/>
     </row>
@@ -13318,115 +9508,13 @@
       <c r="B21" s="3">
         <v>19</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
+      <c r="C21" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="E21" s="6"/>
-    </row>
-    <row r="22" spans="2:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="3">
-        <v>20</v>
-      </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-    </row>
-    <row r="23" spans="2:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="3">
-        <v>21</v>
-      </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-    </row>
-    <row r="24" spans="2:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="3">
-        <v>22</v>
-      </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-    </row>
-    <row r="25" spans="2:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="3">
-        <v>23</v>
-      </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-    </row>
-    <row r="26" spans="2:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="3">
-        <v>24</v>
-      </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-    </row>
-    <row r="27" spans="2:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="3">
-        <v>25</v>
-      </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-    </row>
-    <row r="28" spans="2:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="3">
-        <v>26</v>
-      </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-    </row>
-    <row r="29" spans="2:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="3">
-        <v>27</v>
-      </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-    </row>
-    <row r="30" spans="2:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="3">
-        <v>28</v>
-      </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-    </row>
-    <row r="31" spans="2:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="3">
-        <v>29</v>
-      </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-    </row>
-    <row r="32" spans="2:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="3">
-        <v>30</v>
-      </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14271,490 +10359,6 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="3190" r:id="rId41" name="Check Box 118">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>400050</xdr:colOff>
-                    <xdr:row>21</xdr:row>
-                    <xdr:rowOff>171450</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>685800</xdr:colOff>
-                    <xdr:row>21</xdr:row>
-                    <xdr:rowOff>523875</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="3191" r:id="rId42" name="Check Box 119">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>1209675</xdr:colOff>
-                    <xdr:row>21</xdr:row>
-                    <xdr:rowOff>171450</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>1647825</xdr:colOff>
-                    <xdr:row>21</xdr:row>
-                    <xdr:rowOff>523875</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="3192" r:id="rId43" name="Check Box 120">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>400050</xdr:colOff>
-                    <xdr:row>22</xdr:row>
-                    <xdr:rowOff>171450</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>685800</xdr:colOff>
-                    <xdr:row>22</xdr:row>
-                    <xdr:rowOff>523875</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="3193" r:id="rId44" name="Check Box 121">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>1209675</xdr:colOff>
-                    <xdr:row>22</xdr:row>
-                    <xdr:rowOff>171450</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>1647825</xdr:colOff>
-                    <xdr:row>22</xdr:row>
-                    <xdr:rowOff>523875</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="3194" r:id="rId45" name="Check Box 122">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>400050</xdr:colOff>
-                    <xdr:row>24</xdr:row>
-                    <xdr:rowOff>171450</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>685800</xdr:colOff>
-                    <xdr:row>24</xdr:row>
-                    <xdr:rowOff>523875</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="3195" r:id="rId46" name="Check Box 123">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>1209675</xdr:colOff>
-                    <xdr:row>24</xdr:row>
-                    <xdr:rowOff>171450</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>1647825</xdr:colOff>
-                    <xdr:row>24</xdr:row>
-                    <xdr:rowOff>523875</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="3196" r:id="rId47" name="Check Box 124">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>400050</xdr:colOff>
-                    <xdr:row>23</xdr:row>
-                    <xdr:rowOff>171450</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>685800</xdr:colOff>
-                    <xdr:row>23</xdr:row>
-                    <xdr:rowOff>523875</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="3197" r:id="rId48" name="Check Box 125">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>1209675</xdr:colOff>
-                    <xdr:row>23</xdr:row>
-                    <xdr:rowOff>171450</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>1647825</xdr:colOff>
-                    <xdr:row>23</xdr:row>
-                    <xdr:rowOff>523875</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="3198" r:id="rId49" name="Check Box 126">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>400050</xdr:colOff>
-                    <xdr:row>25</xdr:row>
-                    <xdr:rowOff>171450</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>685800</xdr:colOff>
-                    <xdr:row>25</xdr:row>
-                    <xdr:rowOff>523875</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="3199" r:id="rId50" name="Check Box 127">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>1209675</xdr:colOff>
-                    <xdr:row>25</xdr:row>
-                    <xdr:rowOff>171450</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>1647825</xdr:colOff>
-                    <xdr:row>25</xdr:row>
-                    <xdr:rowOff>523875</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="3200" r:id="rId51" name="Check Box 128">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>400050</xdr:colOff>
-                    <xdr:row>26</xdr:row>
-                    <xdr:rowOff>171450</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>685800</xdr:colOff>
-                    <xdr:row>26</xdr:row>
-                    <xdr:rowOff>523875</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="3201" r:id="rId52" name="Check Box 129">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>1209675</xdr:colOff>
-                    <xdr:row>26</xdr:row>
-                    <xdr:rowOff>171450</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>1647825</xdr:colOff>
-                    <xdr:row>26</xdr:row>
-                    <xdr:rowOff>523875</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="3202" r:id="rId53" name="Check Box 130">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>400050</xdr:colOff>
-                    <xdr:row>27</xdr:row>
-                    <xdr:rowOff>171450</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>685800</xdr:colOff>
-                    <xdr:row>27</xdr:row>
-                    <xdr:rowOff>523875</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="3203" r:id="rId54" name="Check Box 131">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>1209675</xdr:colOff>
-                    <xdr:row>27</xdr:row>
-                    <xdr:rowOff>171450</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>1647825</xdr:colOff>
-                    <xdr:row>27</xdr:row>
-                    <xdr:rowOff>523875</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="3204" r:id="rId55" name="Check Box 132">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>400050</xdr:colOff>
-                    <xdr:row>28</xdr:row>
-                    <xdr:rowOff>171450</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>685800</xdr:colOff>
-                    <xdr:row>28</xdr:row>
-                    <xdr:rowOff>523875</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="3205" r:id="rId56" name="Check Box 133">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>1209675</xdr:colOff>
-                    <xdr:row>28</xdr:row>
-                    <xdr:rowOff>171450</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>1647825</xdr:colOff>
-                    <xdr:row>28</xdr:row>
-                    <xdr:rowOff>523875</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="3206" r:id="rId57" name="Check Box 134">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>400050</xdr:colOff>
-                    <xdr:row>29</xdr:row>
-                    <xdr:rowOff>171450</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>685800</xdr:colOff>
-                    <xdr:row>29</xdr:row>
-                    <xdr:rowOff>523875</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="3207" r:id="rId58" name="Check Box 135">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>1209675</xdr:colOff>
-                    <xdr:row>29</xdr:row>
-                    <xdr:rowOff>171450</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>1647825</xdr:colOff>
-                    <xdr:row>29</xdr:row>
-                    <xdr:rowOff>523875</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="3208" r:id="rId59" name="Check Box 136">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>400050</xdr:colOff>
-                    <xdr:row>30</xdr:row>
-                    <xdr:rowOff>171450</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>685800</xdr:colOff>
-                    <xdr:row>30</xdr:row>
-                    <xdr:rowOff>523875</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="3209" r:id="rId60" name="Check Box 137">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>1209675</xdr:colOff>
-                    <xdr:row>30</xdr:row>
-                    <xdr:rowOff>171450</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>1647825</xdr:colOff>
-                    <xdr:row>30</xdr:row>
-                    <xdr:rowOff>523875</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="3210" r:id="rId61" name="Check Box 138">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>400050</xdr:colOff>
-                    <xdr:row>31</xdr:row>
-                    <xdr:rowOff>171450</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>685800</xdr:colOff>
-                    <xdr:row>31</xdr:row>
-                    <xdr:rowOff>523875</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="3211" r:id="rId62" name="Check Box 139">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>1209675</xdr:colOff>
-                    <xdr:row>31</xdr:row>
-                    <xdr:rowOff>171450</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>1647825</xdr:colOff>
-                    <xdr:row>31</xdr:row>
-                    <xdr:rowOff>523875</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
       </controls>
     </mc:Choice>
   </mc:AlternateContent>
